--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="15720" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>周围击退区域选择lv1</t>
+  </si>
+  <si>
+    <t>周围击退区域选择lv2</t>
+  </si>
+  <si>
+    <t>周围击退区域选择lv3</t>
+  </si>
+  <si>
+    <t>周围击退区域选择lv4</t>
+  </si>
+  <si>
+    <t>周围击退区域选择lv5</t>
   </si>
   <si>
     <t>上官翎技能2区域选择</t>
@@ -1284,17 +1299,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
@@ -1418,57 +1432,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>13001003</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:10">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>13100101</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>14001001</v>
-      </c>
-      <c r="L4">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>13001005</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1482,27 +1468,30 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
+        <v>16100101</v>
+      </c>
+      <c r="L5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>13001006</v>
+        <v>13100102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1517,24 +1506,62 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>4002023</v>
+        <v>16100102</v>
       </c>
       <c r="L6">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>13100103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>16100103</v>
+      </c>
+      <c r="L7">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>13001010</v>
+        <v>13100104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1561,15 +1588,18 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
+        <v>16100104</v>
+      </c>
+      <c r="L8">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>13001011</v>
+        <v>13100105</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
@@ -1595,98 +1625,115 @@
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9">
+        <v>16100105</v>
+      </c>
+      <c r="L9">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>13001003</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>13001012</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:12">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>13002030</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16">
-        <v>15008030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>13002040</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1707,21 +1754,24 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:12">
+        <v>14001001</v>
+      </c>
+      <c r="L19">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>13002041</v>
+        <v>13001005</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1736,30 +1786,65 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="2">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>4002031</v>
-      </c>
-      <c r="L20">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:12">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>13001006</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>4002023</v>
+      </c>
+      <c r="L21">
+        <v>15008019</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>13050001</v>
+        <v>13001010</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1774,50 +1859,269 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
       </c>
       <c r="K23">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:12">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>13001011</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:11">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>13001012</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>13002030</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <v>15008030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>13002040</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:12">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>13002041</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>4002031</v>
+      </c>
+      <c r="L35">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>13050001</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+      <c r="K38">
         <v>14050001</v>
       </c>
-      <c r="L23">
+      <c r="L38">
         <v>15008014</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <v>13050002</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="C39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="K39">
         <v>4005001</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="11445"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>周围击退区域选择lv5</t>
+  </si>
+  <si>
+    <t>区域驱散所有负面buff lv1</t>
+  </si>
+  <si>
+    <t>27000201,4100205</t>
   </si>
   <si>
     <t>上官翎技能2区域选择</t>
@@ -1301,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,15 +1648,43 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>13100201</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="2"/>
@@ -1730,10 +1764,10 @@
         <v>13001003</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1768,10 +1802,10 @@
         <v>13001005</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1803,10 +1837,10 @@
         <v>13001006</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1841,10 +1875,10 @@
         <v>13001010</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1876,10 +1910,10 @@
         <v>13001011</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1900,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L24">
         <v>15008029</v>
@@ -1914,10 +1948,10 @@
         <v>13001012</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1938,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:12">
@@ -1949,10 +1983,10 @@
         <v>13002030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1967,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L31">
         <v>15008030</v>
@@ -1987,10 +2021,10 @@
         <v>13002040</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2022,10 +2056,10 @@
         <v>13002041</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2060,10 +2094,10 @@
         <v>13050001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2098,10 +2132,10 @@
         <v>13050002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -194,6 +194,9 @@
     <t>effectList</t>
   </si>
   <si>
+    <t>groupEffectList</t>
+  </si>
+  <si>
     <t>effectResId</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
     <t>触发的效果列表（对每个选取单位）</t>
   </si>
   <si>
+    <t>触发的效果列表（对所有选择的单位，一般来说是对于之后的组效果，如 linkGroup）</t>
+  </si>
+  <si>
     <t>效果资源id</t>
   </si>
   <si>
@@ -261,6 +267,12 @@
   </si>
   <si>
     <t>27000201,4100205</t>
+  </si>
+  <si>
+    <t>分摊伤害区域选择 lv1</t>
+  </si>
+  <si>
+    <t>28100101</t>
   </si>
   <si>
     <t>上官翎技能2区域选择</t>
@@ -1305,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,11 +1332,11 @@
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="11" max="12" width="24.75" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,81 +1373,90 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
         <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:10">
@@ -1448,7 +1469,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1456,10 +1477,10 @@
         <v>13100101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1482,11 +1503,11 @@
       <c r="K5">
         <v>16100101</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1494,10 +1515,10 @@
         <v>13100102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1520,11 +1541,11 @@
       <c r="K6">
         <v>16100102</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15008014</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1532,10 +1553,10 @@
         <v>13100103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1558,11 +1579,11 @@
       <c r="K7">
         <v>16100103</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>15008014</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1570,10 +1591,10 @@
         <v>13100104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1596,11 +1617,11 @@
       <c r="K8">
         <v>16100104</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15008014</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1608,10 +1629,10 @@
         <v>13100105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1634,7 +1655,7 @@
       <c r="K9">
         <v>16100105</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15008014</v>
       </c>
     </row>
@@ -1648,7 +1669,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1656,10 +1677,10 @@
         <v>13100201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1680,9 +1701,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11">
         <v>15008014</v>
       </c>
     </row>
@@ -1706,15 +1728,44 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13100301</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" s="2"/>
@@ -1756,7 +1807,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1764,10 +1815,10 @@
         <v>13001003</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1790,7 +1841,7 @@
       <c r="K19">
         <v>14001001</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>15008014</v>
       </c>
     </row>
@@ -1802,10 +1853,10 @@
         <v>13001005</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1829,7 +1880,7 @@
         <v>4002020</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:12">
+    <row r="21" customFormat="1" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1837,10 +1888,10 @@
         <v>13001006</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1863,7 +1914,7 @@
       <c r="K21">
         <v>4002023</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>15008019</v>
       </c>
     </row>
@@ -1875,10 +1926,10 @@
         <v>13001010</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1902,7 +1953,7 @@
         <v>3001013</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:12">
+    <row r="24" customFormat="1" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1910,10 +1961,10 @@
         <v>13001011</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1934,13 +1985,14 @@
         <v>2</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24">
+        <v>43</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24">
         <v>15008029</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:11">
+    <row r="25" customFormat="1" spans="1:12">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1948,10 +2000,10 @@
         <v>13001012</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1972,10 +2024,11 @@
         <v>2</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:12">
+        <v>45</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:13">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1983,10 +2036,10 @@
         <v>13002030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2001,15 +2054,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31">
+        <v>48</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31">
         <v>15008030</v>
       </c>
     </row>
@@ -2021,10 +2075,10 @@
         <v>13002040</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2048,7 +2102,7 @@
         <v>4002030</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:12">
+    <row r="35" customFormat="1" spans="1:13">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2056,10 +2110,10 @@
         <v>13002041</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2082,11 +2136,11 @@
       <c r="K35">
         <v>4002031</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>15008031</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2094,10 +2148,10 @@
         <v>13050001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2120,7 +2174,7 @@
       <c r="K38">
         <v>14050001</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>15008014</v>
       </c>
     </row>
@@ -2132,10 +2186,10 @@
         <v>13050002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="17565" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1319,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12075"/>
+    <workbookView windowWidth="22035" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,14 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 自己和所有友方单位
-1 所有友方单位(不包括自己)
-2 所有敌人
-3 所有友方和敌人(不包括自己)
-4 所有实体
-5 自己</t>
+    AllEnemy = 0,
+        FriendAndEnemy = 1,
+        Friend = 2,
+        MeAndFriend = 3,
+        All = 4,
+        //自己 这个纯粹就是为了选自己加上的筛选
+        Self = 5,
+</t>
         </r>
       </text>
     </comment>
@@ -1319,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,9 +1499,7 @@
       <c r="I5" s="2">
         <v>6000</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5">
         <v>16100101</v>
       </c>
@@ -1535,9 +1535,7 @@
       <c r="I6" s="2">
         <v>6000</v>
       </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6">
         <v>16100102</v>
       </c>
@@ -1573,9 +1571,7 @@
       <c r="I7" s="2">
         <v>6000</v>
       </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7">
         <v>16100103</v>
       </c>
@@ -1611,9 +1607,7 @@
       <c r="I8" s="2">
         <v>6000</v>
       </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8">
         <v>16100104</v>
       </c>
@@ -1649,9 +1643,7 @@
       <c r="I9" s="2">
         <v>6000</v>
       </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9">
         <v>16100105</v>
       </c>
@@ -1697,9 +1689,7 @@
       <c r="I11" s="2">
         <v>6000</v>
       </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
@@ -1756,9 +1746,7 @@
       <c r="I14" s="2">
         <v>6000</v>
       </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -1835,9 +1823,7 @@
       <c r="I19" s="2">
         <v>4000</v>
       </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19">
         <v>14001001</v>
       </c>
@@ -1873,9 +1859,7 @@
       <c r="I20" s="2">
         <v>4000</v>
       </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20">
         <v>4002020</v>
       </c>
@@ -1908,9 +1892,7 @@
       <c r="I21" s="2">
         <v>4000</v>
       </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21">
         <v>4002023</v>
       </c>
@@ -1918,6 +1900,9 @@
         <v>15008019</v>
       </c>
     </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="2"/>
+    </row>
     <row r="23" customFormat="1" spans="1:11">
       <c r="A23" t="s">
         <v>0</v>
@@ -1946,9 +1931,7 @@
       <c r="I23" s="2">
         <v>6000</v>
       </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23">
         <v>3001013</v>
       </c>
@@ -1981,9 +1964,7 @@
       <c r="I24" s="2">
         <v>6000</v>
       </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="7" t="s">
         <v>43</v>
       </c>
@@ -2020,14 +2001,27 @@
       <c r="I25" s="2">
         <v>6000</v>
       </c>
-      <c r="J25" s="2">
-        <v>2</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7"/>
     </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="2"/>
+    </row>
     <row r="31" customFormat="1" spans="1:13">
       <c r="A31" t="s">
         <v>0</v>
@@ -2056,9 +2050,7 @@
       <c r="I31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="7" t="s">
         <v>48</v>
       </c>
@@ -2067,6 +2059,12 @@
         <v>15008030</v>
       </c>
     </row>
+    <row r="32" spans="10:10">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="2"/>
+    </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>0</v>
@@ -2095,9 +2093,7 @@
       <c r="I34" s="2">
         <v>4000</v>
       </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34">
         <v>4002030</v>
       </c>
@@ -2130,9 +2126,7 @@
       <c r="I35" s="2">
         <v>8000</v>
       </c>
-      <c r="J35" s="2">
-        <v>2</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35">
         <v>4002031</v>
       </c>
@@ -2140,6 +2134,12 @@
         <v>15008031</v>
       </c>
     </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="2"/>
+    </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>0</v>
@@ -2168,9 +2168,7 @@
       <c r="I38" s="2">
         <v>4000</v>
       </c>
-      <c r="J38" s="2">
-        <v>2</v>
-      </c>
+      <c r="J38" s="2"/>
       <c r="K38">
         <v>14050001</v>
       </c>
@@ -2227,7 +2225,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2244,7 +2242,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22035" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>测试道具 加血区域选择（选自己）</t>
+  </si>
+  <si>
+    <t>ai 远程兵 区域攻击测试</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1322,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5895" ySplit="2715" topLeftCell="A27" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2209,6 +2216,42 @@
       </c>
       <c r="K39">
         <v>4005001</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:13">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>13060101</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42">
+        <v>4006201</v>
+      </c>
+      <c r="M42">
+        <v>15008014</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="14505" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>唐依大招群攻区域选择</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -1322,13 +1325,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5895" ySplit="2715" topLeftCell="A27" activePane="bottomLeft"/>
+      <pane xSplit="5895" ySplit="2715" topLeftCell="J1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1478,12 +1481,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" customFormat="1" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>13100101</v>
+        <v>13003101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -1504,159 +1507,52 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5">
-        <v>16100101</v>
-      </c>
-      <c r="M5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>13100102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6000</v>
-      </c>
+        <v>3003301</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6">
-        <v>16100102</v>
-      </c>
-      <c r="M6">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>13100103</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7">
-        <v>16100103</v>
-      </c>
-      <c r="M7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>13100104</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8">
-        <v>16100104</v>
-      </c>
-      <c r="M8">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>13100105</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9">
-        <v>16100105</v>
-      </c>
-      <c r="M9">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="2"/>
@@ -1668,42 +1564,15 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>13100201</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6000</v>
-      </c>
+    <row r="11" spans="3:10">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="2"/>
@@ -1725,95 +1594,157 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>13100301</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+    <row r="14" spans="3:10">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15">
+        <v>13100101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>6000</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14">
+      <c r="J15" s="2"/>
+      <c r="K15">
+        <v>16100101</v>
+      </c>
+      <c r="M15">
         <v>15008014</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="2"/>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <v>13100102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6000</v>
+      </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="2"/>
+      <c r="K16">
+        <v>16100102</v>
+      </c>
+      <c r="M16">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>13100103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6000</v>
+      </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
+      <c r="K17">
+        <v>16100103</v>
+      </c>
+      <c r="M17">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>13100104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6000</v>
+      </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
+      <c r="K18">
+        <v>16100104</v>
+      </c>
+      <c r="M18">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19">
-        <v>13001003</v>
+        <v>13100105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1828,61 +1759,35 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19">
-        <v>14001001</v>
+        <v>16100105</v>
       </c>
       <c r="M19">
         <v>15008014</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>13001005</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4000</v>
-      </c>
+    <row r="20" spans="3:10">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:13">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21">
-        <v>13001006</v>
+        <v>13100201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1897,64 +1802,46 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21">
-        <v>4002023</v>
-      </c>
+      <c r="K21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="7"/>
       <c r="M21">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>13001010</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>6000</v>
-      </c>
+    <row r="23" spans="3:10">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:13">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24">
-        <v>13001011</v>
+        <v>13100301</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1972,118 +1859,192 @@
         <v>6000</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="M24">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:12">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>13001012</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>6000</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="10:10">
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="3:10">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="3:10">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="2:13">
+      <c r="B29">
+        <v>13001003</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4000</v>
+      </c>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="10:10">
+      <c r="K29">
+        <v>14001001</v>
+      </c>
+      <c r="M29">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>13001005</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4000</v>
+      </c>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:13">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
+      <c r="K30">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:13">
       <c r="B31">
-        <v>13002030</v>
+        <v>13001006</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>47</v>
+      <c r="I31" s="2">
+        <v>4000</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="7"/>
+      <c r="K31">
+        <v>4002023</v>
+      </c>
       <c r="M31">
-        <v>15008030</v>
+        <v>15008019</v>
       </c>
     </row>
     <row r="32" spans="10:10">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" customFormat="1" spans="2:11">
+      <c r="B33">
+        <v>13001010</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6000</v>
+      </c>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
+      <c r="K33">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="2:13">
       <c r="B34">
-        <v>13002040</v>
+        <v>13001011</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2098,25 +2059,26 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:13">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
+      <c r="K34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:12">
       <c r="B35">
-        <v>13002041</v>
+        <v>13001012</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2131,15 +2093,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35">
-        <v>4002031</v>
-      </c>
-      <c r="M35">
-        <v>15008031</v>
-      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="2"/>
@@ -2147,110 +2107,219 @@
     <row r="37" spans="10:10">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="10:10">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" customFormat="1" spans="2:13">
+      <c r="B41">
+        <v>13002030</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41">
+        <v>15008030</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44">
+        <v>13002040</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="2:13">
+      <c r="B45">
+        <v>13002041</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45">
+        <v>4002031</v>
+      </c>
+      <c r="M45">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48">
         <v>13050001</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
         <v>4000</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38">
+      <c r="J48" s="2"/>
+      <c r="K48">
         <v>14050001</v>
       </c>
-      <c r="M38">
+      <c r="M48">
         <v>15008014</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
+    <row r="49" spans="2:11">
+      <c r="B49">
         <v>13050002</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>5</v>
       </c>
-      <c r="K39">
+      <c r="K49">
         <v>4005001</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:13">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
+    <row r="52" customFormat="1" spans="2:13">
+      <c r="B52">
         <v>13060101</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
         <v>4000</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42">
+      <c r="J52" s="2"/>
+      <c r="K52">
         <v>4006201</v>
       </c>
-      <c r="M42">
+      <c r="M52">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>唐依大招群攻区域选择</t>
+  </si>
+  <si>
+    <t>夜魂q被动群攻区域选择</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -491,12 +494,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1331,7 +1334,7 @@
       <pane xSplit="5895" ySplit="2715" topLeftCell="J1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1534,15 +1537,38 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="2"/>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>13004101</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5000</v>
+      </c>
       <c r="J8" s="2"/>
+      <c r="K8">
+        <v>4004201</v>
+      </c>
     </row>
     <row r="9" spans="3:10">
       <c r="C9" s="2"/>
@@ -1609,10 +1635,10 @@
         <v>13100101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1642,10 +1668,10 @@
         <v>13100102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1675,10 +1701,10 @@
         <v>13100103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1708,10 +1734,10 @@
         <v>13100104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1741,10 +1767,10 @@
         <v>13100105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1784,10 +1810,10 @@
         <v>13100201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1806,7 +1832,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21">
@@ -1838,10 +1864,10 @@
         <v>13100301</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1861,7 +1887,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24">
         <v>15008014</v>
@@ -1912,10 +1938,10 @@
         <v>13001003</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1945,10 +1971,10 @@
         <v>13001005</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1975,10 +2001,10 @@
         <v>13001006</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2011,10 +2037,10 @@
         <v>13001010</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2041,10 +2067,10 @@
         <v>13001011</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2063,7 +2089,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34">
@@ -2075,10 +2101,10 @@
         <v>13001012</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2097,7 +2123,7 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -2121,10 +2147,10 @@
         <v>13002030</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -2139,11 +2165,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41">
@@ -2161,10 +2187,10 @@
         <v>13002040</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2191,10 +2217,10 @@
         <v>13002041</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2230,10 +2256,10 @@
         <v>13050001</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2263,10 +2289,10 @@
         <v>13050002</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2295,10 +2321,10 @@
         <v>13060101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890"/>
+    <workbookView windowWidth="26640" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -161,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -254,6 +241,12 @@
   </si>
   <si>
     <t>夜魂q被动群攻区域选择</t>
+  </si>
+  <si>
+    <t>夜魂q 大招区域选择</t>
+  </si>
+  <si>
+    <t>14004501,4004401</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -334,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -955,11 +948,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -977,8 +973,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1330,15 +1326,15 @@
   <sheetPr/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5895" ySplit="2715" topLeftCell="J1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5895" ySplit="2715" topLeftCell="E1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="20.25" customWidth="1"/>
@@ -1347,7 +1343,8 @@
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="12" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1355,7 +1352,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1382,7 +1379,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1423,7 +1420,7 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
@@ -1437,37 +1434,37 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M3" t="s">
@@ -1475,14 +1472,14 @@
       </c>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="1" spans="1:11">
       <c r="A5" t="s">
@@ -1491,51 +1488,51 @@
       <c r="B5">
         <v>13003101</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>5000</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
         <v>3003301</v>
       </c>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" t="s">
@@ -1544,119 +1541,142 @@
       <c r="B8">
         <v>13004101</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8">
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
         <v>4004201</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>13004201</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15">
         <v>13100101</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15">
+      <c r="J15" s="3"/>
+      <c r="K15" s="2">
         <v>16100101</v>
       </c>
       <c r="M15">
@@ -1667,29 +1687,29 @@
       <c r="B16">
         <v>13100102</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>6000</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16">
+      <c r="J16" s="3"/>
+      <c r="K16" s="2">
         <v>16100102</v>
       </c>
       <c r="M16">
@@ -1700,29 +1720,29 @@
       <c r="B17">
         <v>13100103</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17">
+      <c r="J17" s="3"/>
+      <c r="K17" s="2">
         <v>16100103</v>
       </c>
       <c r="M17">
@@ -1733,29 +1753,29 @@
       <c r="B18">
         <v>13100104</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18">
+      <c r="J18" s="3"/>
+      <c r="K18" s="2">
         <v>16100104</v>
       </c>
       <c r="M18">
@@ -1766,29 +1786,29 @@
       <c r="B19">
         <v>13100105</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>6000</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19">
+      <c r="J19" s="3"/>
+      <c r="K19" s="2">
         <v>16100105</v>
       </c>
       <c r="M19">
@@ -1796,170 +1816,170 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21">
         <v>13100201</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21">
         <v>15008014</v>
       </c>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24">
         <v>13100301</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>39</v>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M24">
         <v>15008014</v>
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29">
         <v>13001003</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>4000</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29">
+      <c r="J29" s="3"/>
+      <c r="K29" s="2">
         <v>14001001</v>
       </c>
       <c r="M29">
@@ -1970,29 +1990,29 @@
       <c r="B30">
         <v>13001005</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
         <v>4000</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30">
+      <c r="J30" s="3"/>
+      <c r="K30" s="2">
         <v>4002020</v>
       </c>
     </row>
@@ -2000,29 +2020,29 @@
       <c r="B31">
         <v>13001006</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
         <v>4000</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31">
+      <c r="J31" s="3"/>
+      <c r="K31" s="2">
         <v>4002023</v>
       </c>
       <c r="M31">
@@ -2030,35 +2050,35 @@
       </c>
     </row>
     <row r="32" spans="10:10">
-      <c r="J32" s="2"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" customFormat="1" spans="2:11">
       <c r="B33">
         <v>13001010</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33">
+      <c r="J33" s="3"/>
+      <c r="K33" s="2">
         <v>3001013</v>
       </c>
     </row>
@@ -2066,32 +2086,32 @@
       <c r="B34">
         <v>13001011</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>6000</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="7"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="2"/>
       <c r="M34">
         <v>15008029</v>
       </c>
@@ -2100,115 +2120,115 @@
       <c r="B35">
         <v>13001012</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="7"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="2"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="2"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="2"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="2"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="10:10">
-      <c r="J40" s="2"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" customFormat="1" spans="2:13">
       <c r="B41">
         <v>13002030</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" s="7"/>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="2"/>
       <c r="M41">
         <v>15008030</v>
       </c>
     </row>
     <row r="42" spans="10:10">
-      <c r="J42" s="2"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="2"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44">
         <v>13002040</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44">
+      <c r="J44" s="3"/>
+      <c r="K44" s="2">
         <v>4002030</v>
       </c>
     </row>
@@ -2216,29 +2236,29 @@
       <c r="B45">
         <v>13002041</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45">
+      <c r="J45" s="3"/>
+      <c r="K45" s="2">
         <v>4002031</v>
       </c>
       <c r="M45">
@@ -2246,38 +2266,38 @@
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="2"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="2"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48">
         <v>13050001</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48">
+      <c r="J48" s="3"/>
+      <c r="K48" s="2">
         <v>14050001</v>
       </c>
       <c r="M48">
@@ -2288,11 +2308,11 @@
       <c r="B49">
         <v>13050002</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>54</v>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2303,7 +2323,7 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49">
@@ -2312,7 +2332,7 @@
       <c r="J49">
         <v>5</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>4005001</v>
       </c>
     </row>
@@ -2320,29 +2340,29 @@
       <c r="B52">
         <v>13060101</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52">
+      <c r="J52" s="3"/>
+      <c r="K52" s="2">
         <v>4006201</v>
       </c>
       <c r="M52">
@@ -2366,7 +2386,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2383,7 +2403,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -20,6 +20,7 @@
   <authors>
     <author>Zxy</author>
     <author>94067</author>
+    <author>zhangxiangyu</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -143,12 +144,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>zhangxiangyu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1:生命值最低的
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -177,7 +201,13 @@
     <t>rangeParam</t>
   </si>
   <si>
-    <t>selectEntityType</t>
+    <t>entityRelationFilterType</t>
+  </si>
+  <si>
+    <t>filterEntityType</t>
+  </si>
+  <si>
+    <t>randSelectCount</t>
   </si>
   <si>
     <t>effectList</t>
@@ -225,7 +255,13 @@
     <t>影响范围的参数 半径 或者 长宽等  (*1000)</t>
   </si>
   <si>
-    <t>选择实体类型</t>
+    <t>选择实体类型（1级筛选类型）(实体间关系)</t>
+  </si>
+  <si>
+    <t>2级筛选类型（在1级筛选类型选取之后）</t>
+  </si>
+  <si>
+    <t>随机选择数量，大于 0 表示最近进行随机选取</t>
   </si>
   <si>
     <t>触发的效果列表（对每个选取单位）</t>
@@ -247,6 +283,9 @@
   </si>
   <si>
     <t>14004501,4004401</t>
+  </si>
+  <si>
+    <t>萧玉q 被动攻击治疗随机区域选择</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -334,7 +373,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +524,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1324,14 +1374,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5895" ySplit="2715" topLeftCell="E1" activePane="bottomRight"/>
+      <pane xSplit="5140" ySplit="3480" topLeftCell="G1" activePane="topRight"/>
       <selection/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1343,12 +1393,13 @@
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.75" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="11" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="24.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.75" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,99 +1430,117 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:13">
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+        <v>29</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1480,8 +1549,10 @@
       <c r="H4" s="7"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1489,10 +1560,10 @@
         <v>13003101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1510,11 +1581,13 @@
         <v>5000</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="2">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2">
         <v>3003301</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:12">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1523,8 +1596,10 @@
       <c r="H6" s="7"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="3:10">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1533,8 +1608,10 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1542,10 +1619,10 @@
         <v>13004101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1563,11 +1640,13 @@
         <v>5000</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="2">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2">
         <v>4004201</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:11">
+    <row r="9" customFormat="1" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1575,10 +1654,10 @@
         <v>13004201</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1596,11 +1675,13 @@
         <v>5000</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1609,8 +1690,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1619,18 +1702,49 @@
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:13">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>13005101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1639,8 +1753,10 @@
       <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="3:12">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1649,16 +1765,18 @@
       <c r="H14" s="7"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15">
         <v>13100101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1676,22 +1794,24 @@
         <v>6000</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="2">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2">
         <v>16100101</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>15008014</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:15">
       <c r="B16">
         <v>13100102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1709,22 +1829,24 @@
         <v>6000</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="2">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2">
         <v>16100102</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>15008014</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:15">
       <c r="B17">
         <v>13100103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1742,22 +1864,24 @@
         <v>6000</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="2">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2">
         <v>16100103</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>15008014</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:15">
       <c r="B18">
         <v>13100104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1775,22 +1899,24 @@
         <v>6000</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="2">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2">
         <v>16100104</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>15008014</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:15">
       <c r="B19">
         <v>13100105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1808,14 +1934,16 @@
         <v>6000</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="2">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2">
         <v>16100105</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>15008014</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:12">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1824,16 +1952,18 @@
       <c r="H20" s="7"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21">
         <v>13100201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1851,15 +1981,17 @@
         <v>6000</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21">
         <v>15008014</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:12">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1868,8 +2000,10 @@
       <c r="H22" s="7"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1878,16 +2012,18 @@
       <c r="H23" s="7"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24">
         <v>13100301</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1905,15 +2041,17 @@
         <v>6000</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24">
         <v>15008014</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:12">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1922,8 +2060,10 @@
       <c r="H25" s="7"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1932,8 +2072,10 @@
       <c r="H26" s="7"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1942,8 +2084,10 @@
       <c r="H27" s="7"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1952,16 +2096,18 @@
       <c r="H28" s="7"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29">
         <v>13001003</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1979,22 +2125,24 @@
         <v>4000</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="2">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2">
         <v>14001001</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>15008014</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>13001005</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2012,19 +2160,21 @@
         <v>4000</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="2">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2">
         <v>4002020</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:13">
+    <row r="31" customFormat="1" spans="2:15">
       <c r="B31">
         <v>13001006</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2042,25 +2192,29 @@
         <v>4000</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="2">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2">
         <v>4002023</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>15008019</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:12">
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" spans="2:11">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:13">
       <c r="B33">
         <v>13001010</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2078,19 +2232,21 @@
         <v>6000</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="2">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2">
         <v>3001013</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="2:13">
+    <row r="34" customFormat="1" spans="2:15">
       <c r="B34">
         <v>13001011</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -2108,23 +2264,25 @@
         <v>6000</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34">
         <v>15008029</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="2:12">
+    <row r="35" customFormat="1" spans="2:14">
       <c r="B35">
         <v>13001012</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2142,35 +2300,47 @@
         <v>6000</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="10:10">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="10:12">
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="10:10">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="10:12">
       <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="10:10">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="10:12">
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="10:10">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="10:12">
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="10:10">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="10:12">
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" customFormat="1" spans="2:13">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" customFormat="1" spans="2:15">
       <c r="B41">
         <v>13002030</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -2185,32 +2355,38 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41">
         <v>15008030</v>
       </c>
     </row>
-    <row r="42" spans="10:10">
+    <row r="42" spans="10:12">
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="10:10">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="10:12">
       <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:11">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>13002040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2228,19 +2404,21 @@
         <v>4000</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="2">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="2">
         <v>4002030</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="2:13">
+    <row r="45" customFormat="1" spans="2:15">
       <c r="B45">
         <v>13002041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2258,28 +2436,34 @@
         <v>8000</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="2">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2">
         <v>4002031</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>15008031</v>
       </c>
     </row>
-    <row r="46" spans="10:10">
+    <row r="46" spans="10:12">
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="10:10">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="10:12">
       <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:13">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:15">
       <c r="B48">
         <v>13050001</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2297,22 +2481,24 @@
         <v>4000</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="2">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="2">
         <v>14050001</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>15008014</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:13">
       <c r="B49">
         <v>13050002</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2332,19 +2518,19 @@
       <c r="J49">
         <v>5</v>
       </c>
-      <c r="K49" s="2">
+      <c r="M49" s="2">
         <v>4005001</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="2:13">
+    <row r="52" customFormat="1" spans="2:15">
       <c r="B52">
         <v>13060101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2362,10 +2548,12 @@
         <v>4000</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="2">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="2">
         <v>4006201</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="17400"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +164,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>zhangxiangyu:</t>
         </r>
@@ -159,7 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1:生命值最低的
@@ -172,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -286,6 +299,12 @@
   </si>
   <si>
     <t>萧玉q 被动攻击治疗随机区域选择</t>
+  </si>
+  <si>
+    <t>萧玉大招区域区域选择</t>
+  </si>
+  <si>
+    <t>29005301,29005401</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -366,14 +385,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,23 +545,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1374,17 +1382,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5140" ySplit="3480" topLeftCell="G1" activePane="topRight"/>
+      <pane xSplit="5140" ySplit="3480" topLeftCell="J1" activePane="bottomRight"/>
       <selection/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="20.25" customWidth="1"/>
@@ -1392,8 +1400,7 @@
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="12" width="18.25" customWidth="1"/>
+    <col min="10" max="12" width="18.25" customWidth="1"/>
     <col min="13" max="13" width="24.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.75" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
@@ -1744,17 +1751,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+    <row r="13" customFormat="1" spans="1:13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>13005201</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="3:12">
       <c r="C14" s="3"/>
@@ -1768,50 +1800,27 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15">
-        <v>13100101</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
-      </c>
+    <row r="15" spans="3:12">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="O15">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16">
-        <v>13100102</v>
+        <v>13100101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1832,7 +1841,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="2">
-        <v>16100102</v>
+        <v>16100101</v>
       </c>
       <c r="O16">
         <v>15008014</v>
@@ -1840,13 +1849,13 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17">
-        <v>13100103</v>
+        <v>13100102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1867,7 +1876,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="2">
-        <v>16100103</v>
+        <v>16100102</v>
       </c>
       <c r="O17">
         <v>15008014</v>
@@ -1875,13 +1884,13 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18">
-        <v>13100104</v>
+        <v>13100103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1902,7 +1911,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="2">
-        <v>16100104</v>
+        <v>16100103</v>
       </c>
       <c r="O18">
         <v>15008014</v>
@@ -1910,13 +1919,13 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19">
-        <v>13100105</v>
+        <v>13100104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1937,71 +1946,94 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="2">
-        <v>16100105</v>
+        <v>16100104</v>
       </c>
       <c r="O19">
         <v>15008014</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
+    <row r="20" spans="2:15">
+      <c r="B20">
+        <v>13100105</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6000</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21">
-        <v>13100201</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M20" s="2">
+        <v>16100105</v>
+      </c>
+      <c r="O20">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22">
+        <v>13100201</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6000</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
+      <c r="M22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="3"/>
@@ -2015,53 +2047,53 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24">
-        <v>13100301</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6000</v>
-      </c>
+    <row r="24" spans="3:12">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25">
+        <v>13100301</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6000</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="3"/>
@@ -2099,50 +2131,27 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29">
-        <v>13001003</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>4000</v>
-      </c>
+    <row r="29" spans="3:12">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="2">
-        <v>14001001</v>
-      </c>
-      <c r="O29">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30">
-        <v>13001005</v>
+        <v>13001003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2163,18 +2172,21 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:15">
+        <v>14001001</v>
+      </c>
+      <c r="O30">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31">
-        <v>13001006</v>
+        <v>13001005</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2195,58 +2207,58 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="O31">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="32" spans="10:12">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:15">
+      <c r="B32">
+        <v>13001006</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4000</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" spans="2:13">
-      <c r="B33">
-        <v>13001010</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M32" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="O32">
+        <v>15008019</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12">
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:15">
+    </row>
+    <row r="34" customFormat="1" spans="2:13">
       <c r="B34">
-        <v>13001011</v>
+        <v>13001010</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -2266,17 +2278,13 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:14">
+      <c r="M34" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:15">
       <c r="B35">
-        <v>13001012</v>
+        <v>13001011</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>53</v>
@@ -2306,11 +2314,42 @@
         <v>54</v>
       </c>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="10:12">
+      <c r="O35">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="2:14">
+      <c r="B36">
+        <v>13001012</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6000</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="10:12">
       <c r="J37" s="3"/>
@@ -2332,93 +2371,66 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" customFormat="1" spans="2:15">
-      <c r="B41">
-        <v>13002030</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="41" spans="10:12">
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="2" t="s">
+    </row>
+    <row r="42" customFormat="1" spans="2:15">
+      <c r="B42">
+        <v>13002030</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41">
-        <v>15008030</v>
-      </c>
-    </row>
-    <row r="42" spans="10:12">
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
+      <c r="M42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42">
+        <v>15008030</v>
+      </c>
     </row>
     <row r="43" spans="10:12">
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:13">
-      <c r="B44">
-        <v>13002040</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4000</v>
-      </c>
+    <row r="44" spans="10:12">
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="2:15">
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45">
-        <v>13002041</v>
+        <v>13002040</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2433,127 +2445,159 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="O45">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="46" spans="10:12">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:15">
+      <c r="B46">
+        <v>13002041</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8000</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
+      <c r="M46" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="O46">
+        <v>15008031</v>
+      </c>
     </row>
     <row r="47" spans="10:12">
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:15">
-      <c r="B48">
-        <v>13050001</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4000</v>
-      </c>
+    <row r="48" spans="10:12">
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="2">
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49">
+        <v>13050001</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="2">
         <v>14050001</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>15008014</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
-      <c r="B49">
+    <row r="50" spans="2:13">
+      <c r="B50">
         <v>13050002</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="C50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>5</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M50" s="2">
         <v>4005001</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="2:15">
-      <c r="B52">
+    <row r="53" customFormat="1" spans="2:15">
+      <c r="B53">
         <v>13060101</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="2">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="2">
         <v>4006201</v>
       </c>
-      <c r="O52">
+      <c r="O53">
         <v>15008014</v>
       </c>
     </row>
@@ -2574,7 +2618,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2591,7 +2635,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>萧玉q 被动攻击治疗随机区域选择</t>
+  </si>
+  <si>
+    <t>4005201</t>
   </si>
   <si>
     <t>萧玉大招区域区域选择</t>
@@ -545,12 +548,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1385,11 +1388,11 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5140" ySplit="3480" topLeftCell="J1" activePane="bottomRight"/>
+      <pane xSplit="5140" ySplit="3480" topLeftCell="J3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:13">
@@ -1759,10 +1762,10 @@
         <v>13005201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1785,7 +1788,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="3:12">
@@ -1817,10 +1820,10 @@
         <v>13100101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1852,10 +1855,10 @@
         <v>13100102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1887,10 +1890,10 @@
         <v>13100103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1922,10 +1925,10 @@
         <v>13100104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1957,10 +1960,10 @@
         <v>13100105</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2004,10 +2007,10 @@
         <v>13100201</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2028,7 +2031,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22">
@@ -2064,10 +2067,10 @@
         <v>13100301</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2089,7 +2092,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O25">
         <v>15008014</v>
@@ -2148,10 +2151,10 @@
         <v>13001003</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2183,10 +2186,10 @@
         <v>13001005</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2215,10 +2218,10 @@
         <v>13001006</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2255,10 +2258,10 @@
         <v>13001010</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -2287,10 +2290,10 @@
         <v>13001011</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2311,7 +2314,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35">
@@ -2323,10 +2326,10 @@
         <v>13001012</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2347,7 +2350,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N36" s="2"/>
     </row>
@@ -2381,10 +2384,10 @@
         <v>13002030</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -2399,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42">
@@ -2427,10 +2430,10 @@
         <v>13002040</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2459,10 +2462,10 @@
         <v>13002041</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2504,10 +2507,10 @@
         <v>13050001</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2539,10 +2542,10 @@
         <v>13050002</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2571,10 +2574,10 @@
         <v>13060101</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,12 +180,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：选取的单位（上下文传来的）</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -220,6 +242,9 @@
     <t>filterEntityType</t>
   </si>
   <si>
+    <t>excludeEntityType</t>
+  </si>
+  <si>
     <t>randSelectCount</t>
   </si>
   <si>
@@ -274,6 +299,9 @@
     <t>2级筛选类型（在1级筛选类型选取之后）</t>
   </si>
   <si>
+    <t>排除实体类型</t>
+  </si>
+  <si>
     <t>随机选择数量，大于 0 表示最近进行随机选取</t>
   </si>
   <si>
@@ -308,6 +336,12 @@
   </si>
   <si>
     <t>29005301,29005401</t>
+  </si>
+  <si>
+    <t>承灵大招召唤物的攻击被动区域选择</t>
+  </si>
+  <si>
+    <t>3502101</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -548,12 +582,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1385,14 +1419,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5140" ySplit="3480" topLeftCell="J3" activePane="bottomLeft"/>
+      <pane xSplit="5140" ySplit="3480" topLeftCell="I3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,13 +1437,13 @@
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="24.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.75" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="10" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="24.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.75" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1446,111 +1480,120 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:16">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1561,8 +1604,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:13">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:14">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1570,10 +1614,10 @@
         <v>13003101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1593,11 +1637,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="2">
+      <c r="M5" s="3"/>
+      <c r="N5" s="2">
         <v>3003301</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:13">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1608,8 +1653,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="3:12">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="3:13">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1620,8 +1666,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:13">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:14">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1629,10 +1676,10 @@
         <v>13004101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -1652,11 +1699,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="2">
+      <c r="M8" s="3"/>
+      <c r="N8" s="2">
         <v>4004201</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:13">
+    <row r="9" customFormat="1" spans="1:14">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1664,10 +1712,10 @@
         <v>13004201</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1687,11 +1735,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
+      <c r="M9" s="3"/>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1702,8 +1751,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="3:12">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1714,8 +1764,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:13">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:14">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1723,10 +1774,10 @@
         <v>13005101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1747,14 +1798,15 @@
         <v>3</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:13">
+      <c r="N12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:14">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1762,10 +1814,10 @@
         <v>13005201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1787,11 +1839,12 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12">
+      <c r="M13" s="3"/>
+      <c r="N13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1802,8 +1855,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="3:12">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1814,16 +1868,20 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:14">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
       <c r="B16">
-        <v>13100101</v>
+        <v>13501101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1838,159 +1896,71 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="O16">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17">
-        <v>13100102</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6000</v>
-      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="O17">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18">
-        <v>13100103</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="O18">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19">
-        <v>13100104</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="O19">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20">
-        <v>13100105</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="2">
-        <v>16100105</v>
-      </c>
-      <c r="O20">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2001,44 +1971,22 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22">
-        <v>13100201</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2049,8 +1997,9 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2061,100 +2010,174 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25">
-        <v>13100301</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26">
+        <v>13100101</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6000</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2">
+        <v>16100101</v>
+      </c>
+      <c r="P26">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27">
+        <v>13100102</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6000</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2">
+        <v>16100102</v>
+      </c>
+      <c r="P27">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28">
+        <v>13100103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6000</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2">
+        <v>16100103</v>
+      </c>
+      <c r="P28">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29">
+        <v>13100104</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6000</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="M29" s="3"/>
+      <c r="N29" s="2">
+        <v>16100104</v>
+      </c>
+      <c r="P29">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
-        <v>13001003</v>
+        <v>13100105</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2169,59 +2192,41 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="2">
-        <v>14001001</v>
-      </c>
-      <c r="O30">
+      <c r="M30" s="3"/>
+      <c r="N30" s="2">
+        <v>16100105</v>
+      </c>
+      <c r="P30">
         <v>15008014</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
-      <c r="B31">
-        <v>13001005</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>4000</v>
-      </c>
+    <row r="31" spans="3:13">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:15">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32">
-        <v>13001006</v>
+        <v>13100201</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2236,64 +2241,55 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="O32">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12">
+      <c r="M32" s="3"/>
+      <c r="N32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:13">
-      <c r="B34">
-        <v>13001010</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>6000</v>
-      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:15">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35">
-        <v>13001011</v>
+        <v>13100301</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2313,127 +2309,220 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="M35" s="3"/>
       <c r="N35" s="2"/>
-      <c r="O35">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="2:14">
-      <c r="B36">
-        <v>13001012</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>6000</v>
-      </c>
+      <c r="O35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="10:12">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="10:12">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="10:12">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="10:12">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40">
+        <v>13001003</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4000</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="10:12">
+      <c r="M40" s="3"/>
+      <c r="N40" s="2">
+        <v>14001001</v>
+      </c>
+      <c r="P40">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <v>13001005</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4000</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="2:15">
+      <c r="M41" s="3"/>
+      <c r="N41" s="2">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="2:16">
       <c r="B42">
-        <v>13002030</v>
+        <v>13001006</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>59</v>
+      <c r="I42" s="3">
+        <v>4000</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42">
-        <v>15008030</v>
-      </c>
-    </row>
-    <row r="43" spans="10:12">
+      <c r="M42" s="3"/>
+      <c r="N42" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="P42">
+        <v>15008019</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13">
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="10:12">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" customFormat="1" spans="2:14">
+      <c r="B44">
+        <v>13001010</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6000</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="M44" s="3"/>
+      <c r="N44" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="2:16">
       <c r="B45">
-        <v>13002040</v>
+        <v>13001011</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2448,24 +2537,29 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="2">
-        <v>4002030</v>
+      <c r="M45" s="3"/>
+      <c r="N45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45">
+        <v>15008029</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="2:15">
       <c r="B46">
-        <v>13002041</v>
+        <v>13001012</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2480,127 +2574,278 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="O46">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="47" spans="10:12">
+      <c r="M46" s="3"/>
+      <c r="N46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="10:13">
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="10:12">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="10:13">
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49">
-        <v>13050001</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4000</v>
-      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="10:13">
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="O49">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50">
-        <v>13050002</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="10:13">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="10:13">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" customFormat="1" spans="2:16">
+      <c r="B52">
+        <v>13002030</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="M50" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:15">
-      <c r="B53">
-        <v>13060101</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>4000</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52">
+        <v>15008030</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13">
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="2">
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="10:13">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
+        <v>13002040</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="2">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:16">
+      <c r="B56">
+        <v>13002041</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P56">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="10:13">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59">
+        <v>13050001</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P59">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <v>13050002</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="2:16">
+      <c r="B63">
+        <v>13060101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="2">
         <v>4006201</v>
       </c>
-      <c r="O53">
+      <c r="P63">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,10 @@
         All = 4,
         //自己 这个纯粹就是为了选自己加上的筛选
         Self = 5,
-</t>
+         //自己的召唤兽 ， 自己作为召唤者 与 召唤兽 的 关系
+        Mater_SummonEntity = 6,
+        //自己的召唤者 ， 自己作为召唤兽 与 召唤者 的 关系
+        SummonEntity_Master = 7,</t>
         </r>
       </text>
     </comment>
@@ -207,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -336,6 +339,12 @@
   </si>
   <si>
     <t>29005301,29005401</t>
+  </si>
+  <si>
+    <t>承灵 q 技能被动 造成伤害给召唤兽加血的区域选择</t>
+  </si>
+  <si>
+    <t>4006301</t>
   </si>
   <si>
     <t>承灵大招召唤物的攻击被动区域选择</t>
@@ -1419,20 +1428,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5140" ySplit="3480" topLeftCell="I3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="7125" ySplit="3525" topLeftCell="L3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
@@ -1870,43 +1880,18 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="1" spans="1:14">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>13501101</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5000</v>
-      </c>
+    <row r="16" spans="3:13">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="3"/>
@@ -1921,18 +1906,43 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+    <row r="18" customFormat="1" spans="1:14">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>13006101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
+      <c r="N18" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="3"/>
@@ -2025,9 +2035,12 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" customFormat="1" spans="1:14">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
       <c r="B26">
-        <v>13100101</v>
+        <v>13501101</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>45</v>
@@ -2048,162 +2061,69 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="P26">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27">
-        <v>13100102</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="N26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="P27">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28">
-        <v>13100103</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="P28">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29">
-        <v>13100104</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="P29">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30">
-        <v>13100105</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="2">
-        <v>16100105</v>
-      </c>
-      <c r="P30">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="3"/>
@@ -2218,42 +2138,18 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:16">
-      <c r="B32">
-        <v>13100201</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>6000</v>
-      </c>
+    <row r="32" spans="3:13">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="3"/>
@@ -2281,104 +2177,172 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:16">
-      <c r="B35">
-        <v>13100301</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6000</v>
-      </c>
+    <row r="35" spans="3:13">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="3"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36">
+        <v>13100101</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6000</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="3:13">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3"/>
+      <c r="N36" s="2">
+        <v>16100101</v>
+      </c>
+      <c r="P36">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37">
+        <v>13100102</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6000</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="3"/>
+      <c r="N37" s="2">
+        <v>16100102</v>
+      </c>
+      <c r="P37">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38">
+        <v>13100103</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>6000</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="3"/>
+      <c r="N38" s="2">
+        <v>16100103</v>
+      </c>
+      <c r="P38">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39">
+        <v>13100104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>6000</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
+      <c r="N39" s="2">
+        <v>16100104</v>
+      </c>
+      <c r="P39">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40">
-        <v>13001003</v>
+        <v>13100105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -2393,61 +2357,41 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="2">
-        <v>14001001</v>
+        <v>16100105</v>
       </c>
       <c r="P40">
         <v>15008014</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
-      <c r="B41">
-        <v>13001005</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4000</v>
-      </c>
+    <row r="41" spans="3:13">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="2:16">
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42">
-        <v>13001006</v>
+        <v>13100201</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2462,67 +2406,55 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="2">
-        <v>4002023</v>
-      </c>
+      <c r="N42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" customFormat="1" spans="2:14">
-      <c r="B44">
-        <v>13001010</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>6000</v>
-      </c>
+    <row r="44" spans="3:13">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="2:16">
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45">
-        <v>13001011</v>
+        <v>13100301</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2543,113 +2475,169 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="P45">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="2:15">
-      <c r="B46">
-        <v>13001012</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>6000</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="10:13">
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="10:13">
+    <row r="48" spans="3:13">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="10:13">
+    <row r="49" spans="3:13">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="10:13">
+    <row r="50" spans="2:16">
+      <c r="B50">
+        <v>13001003</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4000</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="10:13">
+      <c r="N50" s="2">
+        <v>14001001</v>
+      </c>
+      <c r="P50">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
+        <v>13001005</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4000</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
+      <c r="N51" s="2">
+        <v>4002020</v>
+      </c>
     </row>
     <row r="52" customFormat="1" spans="2:16">
       <c r="B52">
-        <v>13002030</v>
+        <v>13001006</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>63</v>
+      <c r="I52" s="3">
+        <v>4000</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O52" s="2"/>
+      <c r="N52" s="2">
+        <v>4002023</v>
+      </c>
       <c r="P52">
-        <v>15008030</v>
+        <v>15008019</v>
       </c>
     </row>
     <row r="53" spans="10:13">
@@ -2658,21 +2646,48 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="10:13">
+    <row r="54" customFormat="1" spans="2:14">
+      <c r="B54">
+        <v>13001010</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6000</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="N54" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="2:16">
       <c r="B55">
-        <v>13002040</v>
+        <v>13001011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2687,25 +2702,29 @@
         <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="2:16">
+      <c r="N55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:15">
       <c r="B56">
-        <v>13002041</v>
+        <v>13001012</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2720,18 +2739,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="P56">
-        <v>15008031</v>
-      </c>
+      <c r="N56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O56" s="2"/>
     </row>
     <row r="57" spans="10:13">
       <c r="J57" s="3"/>
@@ -2745,107 +2762,255 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="2:16">
-      <c r="B59">
-        <v>13050001</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4000</v>
-      </c>
+    <row r="59" spans="10:13">
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="P59">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60">
-        <v>13050002</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>5</v>
-      </c>
-      <c r="N60" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="2:16">
-      <c r="B63">
-        <v>13060101</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="60" spans="10:13">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="10:13">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" customFormat="1" spans="2:16">
+      <c r="B62">
+        <v>13002030</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62">
+        <v>15008030</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="2">
+    </row>
+    <row r="64" spans="10:13">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65">
+        <v>13002040</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="2">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="2:16">
+      <c r="B66">
+        <v>13002041</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P66">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="67" spans="10:13">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="10:13">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69">
+        <v>13050001</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P69">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70">
+        <v>13050002</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:16">
+      <c r="B73">
+        <v>13060101</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="2">
         <v>4006201</v>
       </c>
-      <c r="P63">
+      <c r="P73">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1430,12 +1430,12 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="7125" ySplit="3525" topLeftCell="L3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7125" ySplit="3525" topLeftCell="H10" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="15780" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>3502101</t>
+  </si>
+  <si>
+    <t>召唤物自爆人自爆技能的区域选择</t>
+  </si>
+  <si>
+    <t>4801301</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -1431,10 +1437,10 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7125" ySplit="3525" topLeftCell="H10" activePane="bottomLeft"/>
+      <pane xSplit="5775" ySplit="3525" topLeftCell="A10" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="$A27:$XFD27"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" customFormat="1" spans="3:14">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2085,6 +2091,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="3:13">
       <c r="C28" s="3"/>
@@ -2125,18 +2132,43 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="3"/>
+    <row r="31" customFormat="1" spans="1:14">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>13801101</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5000</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
       <c r="M31" s="3"/>
+      <c r="N31" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="3:13">
       <c r="C32" s="3"/>
@@ -2195,10 +2227,10 @@
         <v>13100101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2231,10 +2263,10 @@
         <v>13100102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -2267,10 +2299,10 @@
         <v>13100103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -2303,10 +2335,10 @@
         <v>13100104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -2339,10 +2371,10 @@
         <v>13100105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -2388,10 +2420,10 @@
         <v>13100201</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2413,7 +2445,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42">
@@ -2451,10 +2483,10 @@
         <v>13100301</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2477,7 +2509,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P45">
         <v>15008014</v>
@@ -2540,10 +2572,10 @@
         <v>13001003</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2576,10 +2608,10 @@
         <v>13001005</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -2609,10 +2641,10 @@
         <v>13001006</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2651,10 +2683,10 @@
         <v>13001010</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2684,10 +2716,10 @@
         <v>13001011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2709,7 +2741,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55">
@@ -2721,10 +2753,10 @@
         <v>13001012</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2746,7 +2778,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O56" s="2"/>
     </row>
@@ -2785,10 +2817,10 @@
         <v>13002030</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2803,14 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -2834,10 +2866,10 @@
         <v>13002040</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
@@ -2867,10 +2899,10 @@
         <v>13002041</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2915,10 +2947,10 @@
         <v>13050001</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -2951,10 +2983,10 @@
         <v>13050002</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2983,10 +3015,10 @@
         <v>13060101</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -353,10 +353,16 @@
     <t>3502101</t>
   </si>
   <si>
-    <t>召唤物自爆人自爆技能的区域选择</t>
+    <t>随机技能 召唤物自爆人自爆技能的区域选择</t>
   </si>
   <si>
     <t>4801301</t>
+  </si>
+  <si>
+    <t>随机技能 周为单位击晕的区域选择</t>
+  </si>
+  <si>
+    <t>14801601</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -597,12 +603,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1437,11 +1443,11 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5775" ySplit="3525" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane xSplit="5775" ySplit="3525" topLeftCell="K16" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="$A27:$XFD27"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2170,18 +2176,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="3"/>
+    <row r="32" customFormat="1" spans="1:14">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>13801201</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5000</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
+      <c r="N32" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="3"/>
@@ -2227,10 +2256,10 @@
         <v>13100101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2263,10 +2292,10 @@
         <v>13100102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -2299,10 +2328,10 @@
         <v>13100103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -2335,10 +2364,10 @@
         <v>13100104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -2371,10 +2400,10 @@
         <v>13100105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -2420,10 +2449,10 @@
         <v>13100201</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2445,7 +2474,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42">
@@ -2483,10 +2512,10 @@
         <v>13100301</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2509,7 +2538,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P45">
         <v>15008014</v>
@@ -2572,10 +2601,10 @@
         <v>13001003</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2608,10 +2637,10 @@
         <v>13001005</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -2641,10 +2670,10 @@
         <v>13001006</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2683,10 +2712,10 @@
         <v>13001010</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2716,10 +2745,10 @@
         <v>13001011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2741,7 +2770,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55">
@@ -2753,10 +2782,10 @@
         <v>13001012</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2778,7 +2807,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O56" s="2"/>
     </row>
@@ -2817,10 +2846,10 @@
         <v>13002030</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2835,14 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -2866,10 +2895,10 @@
         <v>13002040</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
@@ -2899,10 +2928,10 @@
         <v>13002041</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2947,10 +2976,10 @@
         <v>13050001</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -2983,10 +3012,10 @@
         <v>13050002</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3015,10 +3044,10 @@
         <v>13060101</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890"/>
+    <workbookView windowWidth="16065" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,8 @@
           </rPr>
           <t xml:space="preserve">
 0 无
-1 释放技能者 到 技能目标(或技能目标点) 的方向</t>
+1 释放技能者 到 技能目标(或技能目标点) 的方向
+20 初始技能释放者的坐标点（点不会因为移动着移动而改变） 到 初始技能目标（或技能目标点）的方向（同理也不会改变）</t>
         </r>
       </text>
     </comment>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -345,6 +346,12 @@
   </si>
   <si>
     <t>4006301</t>
+  </si>
+  <si>
+    <t>怪物 技能 选择 3 连击区域伤害</t>
+  </si>
+  <si>
+    <t>4102101</t>
   </si>
   <si>
     <t>承灵大招召唤物的攻击被动区域选择</t>
@@ -603,12 +610,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1443,17 +1450,17 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5775" ySplit="3525" topLeftCell="K16" activePane="bottomRight"/>
+      <pane xSplit="5805" ySplit="3525" topLeftCell="F10" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
@@ -1969,44 +1976,113 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>13101101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>20</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1500</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
+      <c r="N20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:14">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>13101201</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1500</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3"/>
+      <c r="N21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:14">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>13101301</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1500</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
+      <c r="N22" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="3"/>
@@ -2055,10 +2131,10 @@
         <v>13501101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2082,7 +2158,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:14">
@@ -2099,19 +2175,6 @@
       <c r="M27" s="3"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
     <row r="29" spans="3:13">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2146,10 +2209,10 @@
         <v>13801101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2173,7 +2236,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:14">
@@ -2184,10 +2247,10 @@
         <v>13801201</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2209,7 +2272,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -2256,10 +2319,10 @@
         <v>13100101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2292,10 +2355,10 @@
         <v>13100102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -2328,10 +2391,10 @@
         <v>13100103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -2364,10 +2427,10 @@
         <v>13100104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -2400,10 +2463,10 @@
         <v>13100105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -2449,10 +2512,10 @@
         <v>13100201</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2474,7 +2537,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42">
@@ -2512,10 +2575,10 @@
         <v>13100301</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2538,7 +2601,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45">
         <v>15008014</v>
@@ -2601,10 +2664,10 @@
         <v>13001003</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2637,10 +2700,10 @@
         <v>13001005</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -2670,10 +2733,10 @@
         <v>13001006</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2712,10 +2775,10 @@
         <v>13001010</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2745,10 +2808,10 @@
         <v>13001011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2770,7 +2833,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55">
@@ -2782,10 +2845,10 @@
         <v>13001012</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2807,7 +2870,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O56" s="2"/>
     </row>
@@ -2846,10 +2909,10 @@
         <v>13002030</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2864,14 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -2895,10 +2958,10 @@
         <v>13002040</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
@@ -2928,10 +2991,10 @@
         <v>13002041</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2976,10 +3039,10 @@
         <v>13050001</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -3012,10 +3075,10 @@
         <v>13050002</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3044,10 +3107,10 @@
         <v>13060101</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430"/>
+    <workbookView windowWidth="22665" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,9 @@
           </rPr>
           <t xml:space="preserve">
 0 圆
-1 矩形</t>
+1 矩形
+2 扇形
+</t>
         </r>
       </text>
     </comment>
@@ -125,7 +127,7 @@
           <t xml:space="preserve">
 0 圆：[1]半径
 1 矩形： [1]长 [2] 宽
-2 扇形：[1]半径 [2]角度</t>
+2 扇形：[1]半径 [2]角度（总角度）</t>
         </r>
       </text>
     </comment>
@@ -211,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -352,6 +354,12 @@
   </si>
   <si>
     <t>4102101</t>
+  </si>
+  <si>
+    <t>怪物 技能 扇形区域伤害选择</t>
+  </si>
+  <si>
+    <t>5000,120</t>
   </si>
   <si>
     <t>承灵大招召唤物的攻击被动区域选择</t>
@@ -1071,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1106,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1447,14 +1458,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="F10" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5805" ySplit="3525" topLeftCell="A14" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1465,7 +1476,7 @@
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2" customWidth="1"/>
     <col min="10" max="13" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="24.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.75" customWidth="1"/>
@@ -1497,7 +1508,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1547,7 +1558,7 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1597,7 +1608,7 @@
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1629,7 +1640,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1660,7 +1671,7 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>5000</v>
       </c>
       <c r="J5" s="3"/>
@@ -1678,7 +1689,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1691,7 +1702,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1722,7 +1733,7 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <v>5000</v>
       </c>
       <c r="J8" s="3"/>
@@ -1758,7 +1769,7 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>5000</v>
       </c>
       <c r="J9" s="3"/>
@@ -1776,7 +1787,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1789,7 +1800,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1820,7 +1831,7 @@
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>5000</v>
       </c>
       <c r="J12" s="3">
@@ -1860,7 +1871,7 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>5000</v>
       </c>
       <c r="J13" s="3">
@@ -1880,7 +1891,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1893,7 +1904,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1906,7 +1917,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1919,7 +1930,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1950,7 +1961,7 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="9">
         <v>5000</v>
       </c>
       <c r="J18" s="3">
@@ -1970,7 +1981,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2001,7 +2012,7 @@
       <c r="H20" s="7">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>1500</v>
       </c>
       <c r="J20" s="3"/>
@@ -2037,7 +2048,7 @@
       <c r="H21" s="7">
         <v>3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>1500</v>
       </c>
       <c r="J21" s="3"/>
@@ -2073,7 +2084,7 @@
       <c r="H22" s="7">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>1500</v>
       </c>
       <c r="J22" s="3"/>
@@ -2091,24 +2102,47 @@
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
+    <row r="24" customFormat="1" spans="1:14">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>13102101</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
+      <c r="N24" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="3:13">
       <c r="C25" s="3"/>
@@ -2117,7 +2151,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2131,10 +2165,10 @@
         <v>13501101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2148,7 +2182,7 @@
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="9">
         <v>5000</v>
       </c>
       <c r="J26" s="3"/>
@@ -2158,7 +2192,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:14">
@@ -2168,7 +2202,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2182,7 +2216,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2195,7 +2229,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2209,10 +2243,10 @@
         <v>13801101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2226,7 +2260,7 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="9">
         <v>5000</v>
       </c>
       <c r="J31" s="3"/>
@@ -2236,7 +2270,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:14">
@@ -2247,10 +2281,10 @@
         <v>13801201</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2264,7 +2298,7 @@
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="9">
         <v>5000</v>
       </c>
       <c r="J32" s="3"/>
@@ -2272,7 +2306,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -2282,7 +2316,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2295,7 +2329,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2308,7 +2342,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2319,10 +2353,10 @@
         <v>13100101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2336,7 +2370,7 @@
       <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="9">
         <v>6000</v>
       </c>
       <c r="J36" s="3"/>
@@ -2355,10 +2389,10 @@
         <v>13100102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -2372,7 +2406,7 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="9">
         <v>6000</v>
       </c>
       <c r="J37" s="3"/>
@@ -2391,10 +2425,10 @@
         <v>13100103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -2408,7 +2442,7 @@
       <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="9">
         <v>6000</v>
       </c>
       <c r="J38" s="3"/>
@@ -2427,10 +2461,10 @@
         <v>13100104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -2444,7 +2478,7 @@
       <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="9">
         <v>6000</v>
       </c>
       <c r="J39" s="3"/>
@@ -2463,10 +2497,10 @@
         <v>13100105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -2480,7 +2514,7 @@
       <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="9">
         <v>6000</v>
       </c>
       <c r="J40" s="3"/>
@@ -2501,7 +2535,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2512,10 +2546,10 @@
         <v>13100201</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2529,7 +2563,7 @@
       <c r="H42" s="7">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="9">
         <v>6000</v>
       </c>
       <c r="J42" s="3"/>
@@ -2537,7 +2571,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42">
@@ -2551,7 +2585,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2564,7 +2598,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2575,10 +2609,10 @@
         <v>13100301</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2592,7 +2626,7 @@
       <c r="H45" s="7">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="9">
         <v>6000</v>
       </c>
       <c r="J45" s="3"/>
@@ -2601,7 +2635,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45">
         <v>15008014</v>
@@ -2614,7 +2648,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2627,7 +2661,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2640,7 +2674,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2653,7 +2687,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="9"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2664,10 +2698,10 @@
         <v>13001003</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2681,7 +2715,7 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="9">
         <v>4000</v>
       </c>
       <c r="J50" s="3"/>
@@ -2700,10 +2734,10 @@
         <v>13001005</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -2717,7 +2751,7 @@
       <c r="H51" s="7">
         <v>0</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="9">
         <v>4000</v>
       </c>
       <c r="J51" s="3"/>
@@ -2733,10 +2767,10 @@
         <v>13001006</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2750,7 +2784,7 @@
       <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="9">
         <v>4000</v>
       </c>
       <c r="J52" s="3"/>
@@ -2775,10 +2809,10 @@
         <v>13001010</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2792,7 +2826,7 @@
       <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="9">
         <v>6000</v>
       </c>
       <c r="J54" s="3"/>
@@ -2808,10 +2842,10 @@
         <v>13001011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2825,7 +2859,7 @@
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="9">
         <v>6000</v>
       </c>
       <c r="J55" s="3"/>
@@ -2833,7 +2867,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55">
@@ -2845,10 +2879,10 @@
         <v>13001012</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2862,7 +2896,7 @@
       <c r="H56" s="7">
         <v>0</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="9">
         <v>6000</v>
       </c>
       <c r="J56" s="3"/>
@@ -2870,7 +2904,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O56" s="2"/>
     </row>
@@ -2909,10 +2943,10 @@
         <v>13002030</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2927,14 +2961,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -2953,48 +2987,21 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:14">
-      <c r="B65">
-        <v>13002040</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>4000</v>
-      </c>
+    <row r="65" spans="10:13">
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="2:16">
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66">
-        <v>13002041</v>
+        <v>13002040</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3008,25 +3015,52 @@
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="3">
-        <v>8000</v>
+      <c r="I66" s="9">
+        <v>4000</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="P66">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="67" spans="10:13">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="2:16">
+      <c r="B67">
+        <v>13002041</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>8000</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
+      <c r="N67" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P67">
+        <v>15008031</v>
+      </c>
     </row>
     <row r="68" spans="10:13">
       <c r="J68" s="3"/>
@@ -3034,107 +3068,113 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="2:16">
-      <c r="B69">
-        <v>13050001</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>4000</v>
-      </c>
+    <row r="69" spans="10:13">
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="2">
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70">
+        <v>13050001</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="2">
         <v>14050001</v>
       </c>
-      <c r="P69">
+      <c r="P70">
         <v>15008014</v>
       </c>
     </row>
-    <row r="70" spans="2:14">
-      <c r="B70">
+    <row r="71" spans="2:14">
+      <c r="B71">
         <v>13050002</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="C71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>5</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N71" s="2">
         <v>4005001</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="2:16">
-      <c r="B73">
+    <row r="74" customFormat="1" spans="2:16">
+      <c r="B74">
         <v>13060101</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
         <v>4000</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="2">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="2">
         <v>4006201</v>
       </c>
-      <c r="P73">
+      <c r="P74">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="10095"/>
+    <workbookView windowWidth="31460" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -213,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -318,6 +305,15 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>隐墨大招群攻区域选择</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3001101</t>
   </si>
   <si>
     <t>唐依大招群攻区域选择</t>
@@ -458,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -618,12 +614,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,17 +1454,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="A14" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane xSplit="5805" ySplit="3525" topLeftCell="E1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -1651,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>13003101</v>
+        <v>13001101</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -1671,18 +1667,20 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>5000</v>
+      <c r="I5" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="2">
-        <v>3003301</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13">
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="3:14">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1694,8 +1692,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="3:14">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1707,91 +1706,71 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:14">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>13004101</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5000</v>
-      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:14">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="2">
-        <v>4004201</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:14">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>13004201</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>5000</v>
-      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:14">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:14">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>13003101</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5000</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
+      <c r="N10" s="2">
+        <v>3003301</v>
+      </c>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="3"/>
@@ -1806,58 +1785,31 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="1" spans="1:14">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>13005101</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
+    <row r="12" spans="3:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:14">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13005201</v>
+        <v>13004101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1874,28 +1826,49 @@
       <c r="I13" s="9">
         <v>5000</v>
       </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
+      <c r="N13" s="2">
+        <v>4004201</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13004201</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5000</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
+      <c r="N14" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="3"/>
@@ -1923,31 +1896,58 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="3"/>
+    <row r="17" customFormat="1" spans="1:14">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>13005101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" customFormat="1" spans="1:14">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>13006101</v>
+        <v>13005201</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>5000</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:13">
@@ -1987,188 +1987,144 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>13101101</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1500</v>
-      </c>
+    <row r="20" spans="3:13">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:14">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>13101201</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1500</v>
-      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:14">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>13101301</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>20</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1500</v>
-      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="2" t="s">
+    </row>
+    <row r="23" customFormat="1" spans="1:14">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>13006101</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:14">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>13102101</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="N23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>13101101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1500</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
+      <c r="N25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" customFormat="1" spans="1:14">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26">
-        <v>13501101</v>
+        <v>13101201</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2177,50 +2133,106 @@
         <v>0</v>
       </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I26" s="9">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="3:14">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:14">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>13101301</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1500</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
+      <c r="N27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:14">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>13102101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
+      <c r="N29" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="3"/>
@@ -2240,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>13801101</v>
+        <v>13501101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2270,57 +2282,22 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:14">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>13801201</v>
-      </c>
-      <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
-        <v>5000</v>
-      </c>
+    </row>
+    <row r="32" customFormat="1" spans="3:14">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="3"/>
@@ -2348,15 +2325,18 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" customFormat="1" spans="1:14">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
       <c r="B36">
-        <v>13100101</v>
+        <v>13801101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2371,22 +2351,24 @@
         <v>0</v>
       </c>
       <c r="I36" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="P36">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="N36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:14">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
       <c r="B37">
-        <v>13100102</v>
+        <v>13801201</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>56</v>
@@ -2407,149 +2389,100 @@
         <v>0</v>
       </c>
       <c r="I37" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="P37">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38">
-        <v>13100103</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="P38">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39">
-        <v>13100104</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="P39">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40">
-        <v>13100105</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="2">
-        <v>16100105</v>
-      </c>
-      <c r="P40">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41">
+        <v>13100101</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>6000</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
+      <c r="N41" s="2">
+        <v>16100101</v>
+      </c>
+      <c r="P41">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42">
-        <v>13100201</v>
+        <v>13100102</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2570,43 +2503,88 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="N42" s="2">
+        <v>16100102</v>
+      </c>
       <c r="P42">
         <v>15008014</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
+    <row r="43" spans="2:16">
+      <c r="B43">
+        <v>13100103</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>6000</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="3:13">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9"/>
+      <c r="N43" s="2">
+        <v>16100103</v>
+      </c>
+      <c r="P43">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44">
+        <v>13100104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <v>6000</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
+      <c r="N44" s="2">
+        <v>16100104</v>
+      </c>
+      <c r="P44">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45">
-        <v>13100301</v>
+        <v>13100105</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>62</v>
@@ -2633,9 +2611,8 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
-        <v>63</v>
+      <c r="N45" s="2">
+        <v>16100105</v>
       </c>
       <c r="P45">
         <v>15008014</v>
@@ -2654,18 +2631,42 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="3:13">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
+    <row r="47" spans="2:16">
+      <c r="B47">
+        <v>13100201</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>6000</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
+      <c r="N47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="3"/>
@@ -2695,13 +2696,13 @@
     </row>
     <row r="50" spans="2:16">
       <c r="B50">
-        <v>13001003</v>
+        <v>13100301</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2716,136 +2717,80 @@
         <v>0</v>
       </c>
       <c r="I50" s="9">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="2">
-        <v>14001001</v>
+      <c r="O50" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="P50">
         <v>15008014</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51">
-        <v>13001005</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>4000</v>
-      </c>
+    <row r="51" spans="3:13">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="2:16">
-      <c r="B52">
-        <v>13001006</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="P52">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13">
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" customFormat="1" spans="2:14">
-      <c r="B54">
-        <v>13001010</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>6000</v>
-      </c>
+    <row r="54" spans="3:13">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="2:16">
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55">
-        <v>13001011</v>
+        <v>13001003</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -2860,29 +2805,28 @@
         <v>0</v>
       </c>
       <c r="I55" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O55" s="2"/>
+      <c r="N55" s="2">
+        <v>14001001</v>
+      </c>
       <c r="P55">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="2:15">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
       <c r="B56">
-        <v>13001012</v>
+        <v>13001005</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2897,22 +2841,51 @@
         <v>0</v>
       </c>
       <c r="I56" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="10:13">
+      <c r="N56" s="2">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="2:16">
+      <c r="B57">
+        <v>13001006</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>4000</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
+      <c r="N57" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="P57">
+        <v>15008019</v>
+      </c>
     </row>
     <row r="58" spans="10:13">
       <c r="J58" s="3"/>
@@ -2920,60 +2893,115 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="10:13">
+    <row r="59" customFormat="1" spans="2:14">
+      <c r="B59">
+        <v>13001010</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>6000</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="10:13">
+      <c r="N59" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="2:16">
+      <c r="B60">
+        <v>13001011</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>6000</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="10:13">
+      <c r="N60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="2:15">
+      <c r="B61">
+        <v>13001012</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>6000</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" customFormat="1" spans="2:16">
-      <c r="B62">
-        <v>13002030</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="N61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="10:13">
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62">
-        <v>15008030</v>
-      </c>
     </row>
     <row r="63" spans="10:13">
       <c r="J63" s="3"/>
@@ -2993,73 +3021,47 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:14">
-      <c r="B66">
-        <v>13002040</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>4000</v>
-      </c>
+    <row r="66" spans="10:13">
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="2">
-        <v>4002030</v>
-      </c>
     </row>
     <row r="67" customFormat="1" spans="2:16">
       <c r="B67">
-        <v>13002041</v>
+        <v>13002030</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>8000</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="2">
-        <v>4002031</v>
-      </c>
+      <c r="N67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67">
-        <v>15008031</v>
+        <v>15008030</v>
       </c>
     </row>
     <row r="68" spans="10:13">
@@ -3074,45 +3076,15 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="2:16">
-      <c r="B70">
-        <v>13050001</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="9">
-        <v>4000</v>
-      </c>
+    <row r="70" spans="10:13">
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="P70">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="71" spans="2:14">
       <c r="B71">
-        <v>13050002</v>
+        <v>13002040</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>78</v>
@@ -3120,61 +3092,178 @@
       <c r="D71" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
         <v>0</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
-      <c r="I71" s="2">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
-      </c>
+      <c r="I71" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
       <c r="N71" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="2:16">
-      <c r="B74">
-        <v>13060101</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:16">
+      <c r="B72">
+        <v>13002041</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9">
-        <v>4000</v>
-      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>8000</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P72">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="73" spans="10:13">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="10:13">
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="2">
+    </row>
+    <row r="75" spans="2:16">
+      <c r="B75">
+        <v>13050001</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P75">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76">
+        <v>13050002</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="N76" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="2:16">
+      <c r="B79">
+        <v>13060101</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="2">
         <v>4006201</v>
       </c>
-      <c r="P74">
+      <c r="P79">
         <v>15008014</v>
       </c>
     </row>
@@ -3195,7 +3284,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3212,7 +3301,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -1456,12 +1456,12 @@
   <sheetPr/>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="E1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5805" ySplit="3525" topLeftCell="E1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -454,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -614,12 +627,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1457,14 +1470,14 @@
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="E1" activePane="bottomLeft"/>
+      <pane xSplit="5805" ySplit="3525" topLeftCell="K1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -1767,7 +1780,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
       <c r="N10" s="2">
         <v>3003301</v>
       </c>
@@ -3284,7 +3299,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3301,7 +3316,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="17040" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>4006301</t>
+  </si>
+  <si>
+    <t>林清远q技能区域选择</t>
+  </si>
+  <si>
+    <t>4007201,14007101</t>
   </si>
   <si>
     <t>怪物 技能 选择 3 连击区域伤害</t>
@@ -1467,14 +1473,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="K1" activePane="bottomRight"/>
+      <pane xSplit="5805" ySplit="3525" topLeftCell="M13" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2079,7 +2085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" customFormat="1" spans="3:14">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2091,85 +2097,42 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>13101101</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>20</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1500</v>
-      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:14">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:14">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>13101201</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>20</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1500</v>
-      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:14">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="1:14">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>13101301</v>
+        <v>13007101</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>48</v>
@@ -2184,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <v>5000</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1500</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2200,7 +2163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" customFormat="1" spans="3:14">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2212,44 +2175,23 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:14">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>13102101</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="3:14">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:14">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2261,19 +2203,20 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:14">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>13501101</v>
+        <v>13101101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2282,37 +2225,93 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I31" s="9">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="3:14">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:14">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>13101201</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3200</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1500</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:14">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>13101301</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>20</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="3"/>
@@ -2327,69 +2326,67 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="3:13">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
+    <row r="35" customFormat="1" spans="1:14">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>13102101</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:14">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>13801101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
-        <v>5000</v>
-      </c>
+      <c r="N35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="37" customFormat="1" spans="1:14">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>13801201</v>
+        <v>13501101</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -2408,13 +2405,15 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="3:14">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2426,19 +2425,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="40" spans="3:13">
       <c r="C40" s="3"/>
@@ -2453,51 +2440,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:16">
-      <c r="B41">
-        <v>13100101</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>6000</v>
-      </c>
+    <row r="41" spans="3:13">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="P41">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16">
+    </row>
+    <row r="42" customFormat="1" spans="1:14">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
       <c r="B42">
-        <v>13100102</v>
+        <v>13801101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2512,28 +2479,30 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="P42">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="N42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:14">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
       <c r="B43">
-        <v>13100103</v>
+        <v>13801201</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2548,90 +2517,41 @@
         <v>0</v>
       </c>
       <c r="I43" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="P43">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44">
-        <v>13100104</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
-        <v>6000</v>
-      </c>
+      <c r="N43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="P44">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45">
-        <v>13100105</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="2">
-        <v>16100105</v>
-      </c>
-      <c r="P45">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="3"/>
@@ -2648,13 +2568,13 @@
     </row>
     <row r="47" spans="2:16">
       <c r="B47">
-        <v>13100201</v>
+        <v>13100101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2675,49 +2595,94 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O47" s="2"/>
+      <c r="N47" s="2">
+        <v>16100101</v>
+      </c>
       <c r="P47">
         <v>15008014</v>
       </c>
     </row>
-    <row r="48" spans="3:13">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9"/>
+    <row r="48" spans="2:16">
+      <c r="B48">
+        <v>13100102</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>6000</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="9"/>
+      <c r="N48" s="2">
+        <v>16100102</v>
+      </c>
+      <c r="P48">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49">
+        <v>13100103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>6000</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
+      <c r="N49" s="2">
+        <v>16100103</v>
+      </c>
+      <c r="P49">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50">
-        <v>13100301</v>
+        <v>13100104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -2738,25 +2703,48 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="O50" s="2" t="s">
-        <v>66</v>
+      <c r="N50" s="2">
+        <v>16100104</v>
       </c>
       <c r="P50">
         <v>15008014</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="9"/>
+    <row r="51" spans="2:16">
+      <c r="B51">
+        <v>13100105</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>6000</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
+      <c r="N51" s="2">
+        <v>16100105</v>
+      </c>
+      <c r="P51">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="3"/>
@@ -2771,18 +2759,42 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="3:13">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9"/>
+    <row r="53" spans="2:16">
+      <c r="B53">
+        <v>13100201</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>6000</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
+      <c r="N53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="54" spans="3:13">
       <c r="C54" s="3"/>
@@ -2797,51 +2809,28 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="2:16">
-      <c r="B55">
-        <v>13001003</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>4000</v>
-      </c>
+    <row r="55" spans="3:13">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="2">
-        <v>14001001</v>
-      </c>
-      <c r="P55">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14">
+    </row>
+    <row r="56" spans="2:16">
       <c r="B56">
-        <v>13001005</v>
+        <v>13100301</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -2856,137 +2845,80 @@
         <v>0</v>
       </c>
       <c r="I56" s="9">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="2:16">
-      <c r="B57">
-        <v>13001006</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>4000</v>
-      </c>
+      <c r="O56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="P57">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="58" spans="10:13">
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" customFormat="1" spans="2:14">
-      <c r="B59">
-        <v>13001010</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>6000</v>
-      </c>
+    <row r="59" spans="3:13">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="2:16">
-      <c r="B60">
-        <v>13001011</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="2:15">
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61">
-        <v>13001012</v>
+        <v>13001003</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3001,28 +2933,87 @@
         <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="10:13">
+      <c r="N61" s="2">
+        <v>14001001</v>
+      </c>
+      <c r="P61">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <v>13001005</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <v>4000</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="10:13">
+      <c r="N62" s="2">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="2:16">
+      <c r="B63">
+        <v>13001006</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>4000</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
+      <c r="N63" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="P63">
+        <v>15008019</v>
+      </c>
     </row>
     <row r="64" spans="10:13">
       <c r="J64" s="3"/>
@@ -3030,21 +3021,79 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="10:13">
+    <row r="65" customFormat="1" spans="2:14">
+      <c r="B65">
+        <v>13001010</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>6000</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="10:13">
+      <c r="N65" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="2:16">
+      <c r="B66">
+        <v>13001011</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>6000</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" customFormat="1" spans="2:16">
+      <c r="N66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="2:15">
       <c r="B67">
-        <v>13002030</v>
+        <v>13001012</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>75</v>
@@ -3053,31 +3102,28 @@
         <v>75</v>
       </c>
       <c r="E67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>76</v>
+      <c r="I67" s="9">
+        <v>6000</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O67" s="2"/>
-      <c r="P67">
-        <v>15008030</v>
-      </c>
     </row>
     <row r="68" spans="10:13">
       <c r="J68" s="3"/>
@@ -3097,80 +3143,54 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="2:14">
-      <c r="B71">
-        <v>13002040</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="9">
-        <v>4000</v>
-      </c>
+    <row r="71" spans="10:13">
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:16">
-      <c r="B72">
-        <v>13002041</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9">
-        <v>8000</v>
-      </c>
+    </row>
+    <row r="72" spans="10:13">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="P72">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="73" spans="10:13">
+    </row>
+    <row r="73" customFormat="1" spans="2:16">
+      <c r="B73">
+        <v>13002030</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
+      <c r="N73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73">
+        <v>15008030</v>
+      </c>
     </row>
     <row r="74" spans="10:13">
       <c r="J74" s="3"/>
@@ -3178,107 +3198,200 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="2:16">
-      <c r="B75">
-        <v>13050001</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9">
-        <v>4000</v>
-      </c>
+    <row r="75" spans="10:13">
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="P75">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76">
-        <v>13050002</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="76" spans="10:13">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77">
+        <v>13002040</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="2">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="2:16">
+      <c r="B78">
+        <v>13002041</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>5</v>
-      </c>
-      <c r="N76" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="2:16">
-      <c r="B79">
-        <v>13060101</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="9">
-        <v>4000</v>
-      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>8000</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P78">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="79" spans="10:13">
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="2">
+    </row>
+    <row r="80" spans="10:13">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81">
+        <v>13050001</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P81">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82">
+        <v>13050002</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="N82" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="2:16">
+      <c r="B85">
+        <v>13060101</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="2">
         <v>4006201</v>
       </c>
-      <c r="P79">
+      <c r="P85">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="11700"/>
+    <workbookView windowWidth="16665" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>4007201,14007101</t>
+  </si>
+  <si>
+    <t>4007202,14007101</t>
+  </si>
+  <si>
+    <t>4007203,14007101</t>
+  </si>
+  <si>
+    <t>4007204,14007101</t>
+  </si>
+  <si>
+    <t>4007205,14007101</t>
   </si>
   <si>
     <t>怪物 技能 选择 3 连击区域伤害</t>
@@ -1473,14 +1485,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="M13" activePane="bottomLeft"/>
+      <pane xSplit="5805" ySplit="3525" topLeftCell="L13" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2163,60 +2175,126 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="3:14">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9"/>
+    <row r="28" customFormat="1" spans="1:14">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>13007102</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>5000</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" spans="3:14">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
+      <c r="N28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:14">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>13007103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5000</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" customFormat="1" spans="3:14">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9"/>
+      <c r="N29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:14">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>13007104</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5000</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:14">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>13101101</v>
+        <v>13007105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2225,95 +2303,51 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H31" s="7">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:14">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>13101201</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>20</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1500</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="3:14">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:14">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>13101301</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>20</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I33" s="9">
-        <v>1500</v>
-      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="3:14">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" customFormat="1" spans="3:14">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2325,44 +2359,23 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:14">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>13102101</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:14">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" customFormat="1" spans="3:14">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2374,13 +2387,14 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:14">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>13501101</v>
+        <v>13101101</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -2395,37 +2409,93 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I37" s="9">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="3:14">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
+    <row r="38" customFormat="1" spans="1:14">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>13101201</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>20</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3200</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1500</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:14">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>13101301</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>20</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="3:13">
       <c r="C40" s="3"/>
@@ -2440,63 +2510,61 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="3:13">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
+    <row r="41" customFormat="1" spans="1:14">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>13102101</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:14">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>13801101</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>5000</v>
-      </c>
+      <c r="N41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
+      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="43" customFormat="1" spans="1:14">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>13801201</v>
+        <v>13501101</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>58</v>
@@ -2521,13 +2589,15 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" customFormat="1" spans="3:14">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2539,19 +2609,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="3:13">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="3"/>
@@ -2566,51 +2624,31 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:16">
-      <c r="B47">
-        <v>13100101</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <v>6000</v>
-      </c>
+    <row r="47" spans="3:13">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="P47">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16">
+    </row>
+    <row r="48" customFormat="1" spans="1:14">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
       <c r="B48">
-        <v>13100102</v>
+        <v>13801101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2625,22 +2663,24 @@
         <v>0</v>
       </c>
       <c r="I48" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
       <c r="M48" s="3"/>
-      <c r="N48" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="P48">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="N48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:14">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
       <c r="B49">
-        <v>13100103</v>
+        <v>13801201</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>62</v>
@@ -2661,90 +2701,41 @@
         <v>0</v>
       </c>
       <c r="I49" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="P49">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="B50">
-        <v>13100104</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="N49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="P50">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51">
-        <v>13100105</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="2">
-        <v>16100105</v>
-      </c>
-      <c r="P51">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="52" spans="3:13">
       <c r="C52" s="3"/>
@@ -2761,13 +2752,13 @@
     </row>
     <row r="53" spans="2:16">
       <c r="B53">
-        <v>13100201</v>
+        <v>13100101</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -2788,43 +2779,88 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O53" s="2"/>
+      <c r="N53" s="2">
+        <v>16100101</v>
+      </c>
       <c r="P53">
         <v>15008014</v>
       </c>
     </row>
-    <row r="54" spans="3:13">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="9"/>
+    <row r="54" spans="2:16">
+      <c r="B54">
+        <v>13100102</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>6000</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="9"/>
+      <c r="N54" s="2">
+        <v>16100102</v>
+      </c>
+      <c r="P54">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="B55">
+        <v>13100103</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>6000</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
+      <c r="N55" s="2">
+        <v>16100103</v>
+      </c>
+      <c r="P55">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="56" spans="2:16">
       <c r="B56">
-        <v>13100301</v>
+        <v>13100104</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>67</v>
@@ -2851,25 +2887,48 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="O56" s="2" t="s">
-        <v>68</v>
+      <c r="N56" s="2">
+        <v>16100104</v>
       </c>
       <c r="P56">
         <v>15008014</v>
       </c>
     </row>
-    <row r="57" spans="3:13">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
+    <row r="57" spans="2:16">
+      <c r="B57">
+        <v>13100105</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>6000</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
+      <c r="N57" s="2">
+        <v>16100105</v>
+      </c>
+      <c r="P57">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="58" spans="3:13">
       <c r="C58" s="3"/>
@@ -2884,18 +2943,42 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="3:13">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="9"/>
+    <row r="59" spans="2:16">
+      <c r="B59">
+        <v>13100201</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>6000</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
+      <c r="N59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="60" spans="3:13">
       <c r="C60" s="3"/>
@@ -2910,51 +2993,28 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="2:16">
-      <c r="B61">
-        <v>13001003</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>4000</v>
-      </c>
+    <row r="61" spans="3:13">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="2">
-        <v>14001001</v>
-      </c>
-      <c r="P61">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14">
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62">
-        <v>13001005</v>
+        <v>13100301</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2969,137 +3029,80 @@
         <v>0</v>
       </c>
       <c r="I62" s="9">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="2:16">
-      <c r="B63">
-        <v>13001006</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>4000</v>
-      </c>
+      <c r="O62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="P63">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="64" spans="10:13">
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" customFormat="1" spans="2:14">
-      <c r="B65">
-        <v>13001010</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>6000</v>
-      </c>
+    <row r="65" spans="3:13">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="2:16">
-      <c r="B66">
-        <v>13001011</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="2:15">
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67">
-        <v>13001012</v>
+        <v>13001003</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -3114,28 +3117,87 @@
         <v>0</v>
       </c>
       <c r="I67" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="10:13">
+      <c r="N67" s="2">
+        <v>14001001</v>
+      </c>
+      <c r="P67">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68">
+        <v>13001005</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9">
+        <v>4000</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="10:13">
+      <c r="N68" s="2">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="2:16">
+      <c r="B69">
+        <v>13001006</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>4000</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
+      <c r="N69" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="P69">
+        <v>15008019</v>
+      </c>
     </row>
     <row r="70" spans="10:13">
       <c r="J70" s="3"/>
@@ -3143,54 +3205,109 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="10:13">
+    <row r="71" customFormat="1" spans="2:14">
+      <c r="B71">
+        <v>13001010</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <v>6000</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="10:13">
+      <c r="N71" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:16">
+      <c r="B72">
+        <v>13001011</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>6000</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-    </row>
-    <row r="73" customFormat="1" spans="2:16">
+      <c r="N72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:15">
       <c r="B73">
-        <v>13002030</v>
+        <v>13001012</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>78</v>
+      <c r="I73" s="9">
+        <v>6000</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O73" s="2"/>
-      <c r="P73">
-        <v>15008030</v>
-      </c>
     </row>
     <row r="74" spans="10:13">
       <c r="J74" s="3"/>
@@ -3210,80 +3327,54 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="2:14">
-      <c r="B77">
-        <v>13002040</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9">
-        <v>4000</v>
-      </c>
+    <row r="77" spans="10:13">
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="2:16">
-      <c r="B78">
-        <v>13002041</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9">
-        <v>8000</v>
-      </c>
+    </row>
+    <row r="78" spans="10:13">
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="P78">
-        <v>15008031</v>
-      </c>
-    </row>
-    <row r="79" spans="10:13">
+    </row>
+    <row r="79" customFormat="1" spans="2:16">
+      <c r="B79">
+        <v>13002030</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
+      <c r="N79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79">
+        <v>15008030</v>
+      </c>
     </row>
     <row r="80" spans="10:13">
       <c r="J80" s="3"/>
@@ -3291,107 +3382,200 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="2:16">
-      <c r="B81">
-        <v>13050001</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9">
-        <v>4000</v>
-      </c>
+    <row r="81" spans="10:13">
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="P81">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14">
-      <c r="B82">
-        <v>13050002</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="N82" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="2:16">
-      <c r="B85">
-        <v>13060101</v>
-      </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="82" spans="10:13">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83">
+        <v>13002040</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
         <v>4000</v>
       </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="2">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="2:16">
+      <c r="B84">
+        <v>13002041</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>8000</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="2">
+        <v>4002031</v>
+      </c>
+      <c r="P84">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="85" spans="10:13">
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="N85" s="2">
+    </row>
+    <row r="86" spans="10:13">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87">
+        <v>13050001</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P87">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88">
+        <v>13050002</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="2:16">
+      <c r="B91">
+        <v>13060101</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="2">
         <v>4006201</v>
       </c>
-      <c r="P85">
+      <c r="P91">
         <v>15008014</v>
       </c>
     </row>

--- a/data_config/AreaEffect.xlsx
+++ b/data_config/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="11700"/>
+    <workbookView windowWidth="16500" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -404,7 +404,19 @@
     <t>随机技能 周为单位击晕的区域选择</t>
   </si>
   <si>
-    <t>14801601</t>
+    <t>14801601,4804301</t>
+  </si>
+  <si>
+    <t>14801601,4804302</t>
+  </si>
+  <si>
+    <t>14801601,4804303</t>
+  </si>
+  <si>
+    <t>14801601,4804304</t>
+  </si>
+  <si>
+    <t>14801601,4804305</t>
   </si>
   <si>
     <t>周围击退区域选择lv1</t>
@@ -1485,14 +1497,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5805" ySplit="3525" topLeftCell="L13" activePane="bottomRight"/>
+      <pane xSplit="5805" ySplit="3525" topLeftCell="K37" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2675,90 +2687,140 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:14">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>13801201</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>5000</v>
-      </c>
+    <row r="49" customFormat="1" spans="3:14">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="9"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="9"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:14">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>13801201</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>5000</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="9"/>
+      <c r="N50" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:14">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>13801202</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>5000</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="9"/>
+      <c r="N51" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:14">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>13801203</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>5000</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="N52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:14">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
       <c r="B53">
-        <v>13100101</v>
+        <v>13801204</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -2773,28 +2835,28 @@
         <v>0</v>
       </c>
       <c r="I53" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="2">
-        <v>16100101</v>
-      </c>
-      <c r="P53">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="N53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:14">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
       <c r="B54">
-        <v>13100102</v>
+        <v>13801205</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2809,94 +2871,45 @@
         <v>0</v>
       </c>
       <c r="I54" s="9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="2">
-        <v>16100102</v>
-      </c>
-      <c r="P54">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55">
-        <v>13100103</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>6000</v>
-      </c>
+      <c r="N54" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="2">
-        <v>16100103</v>
-      </c>
-      <c r="P55">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56">
-        <v>13100104</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="2">
-        <v>16100104</v>
-      </c>
-      <c r="P56">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57">
-        <v>13100105</v>
+        <v>13100101</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>68</v>
@@ -2924,34 +2937,57 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2">
-        <v>16100105</v>
+        <v>16100101</v>
       </c>
       <c r="P57">
         <v>15008014</v>
       </c>
     </row>
-    <row r="58" spans="3:13">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9"/>
+    <row r="58" spans="2:16">
+      <c r="B58">
+        <v>13100102</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>6000</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
+      <c r="N58" s="2">
+        <v>16100102</v>
+      </c>
+      <c r="P58">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="59" spans="2:16">
       <c r="B59">
-        <v>13100201</v>
+        <v>13100103</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2972,88 +3008,134 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O59" s="2"/>
+      <c r="N59" s="2">
+        <v>16100103</v>
+      </c>
       <c r="P59">
         <v>15008014</v>
       </c>
     </row>
-    <row r="60" spans="3:13">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="9"/>
+    <row r="60" spans="2:16">
+      <c r="B60">
+        <v>13100104</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>6000</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="9"/>
+      <c r="N60" s="2">
+        <v>16100104</v>
+      </c>
+      <c r="P60">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61">
+        <v>13100105</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>6000</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="B62">
-        <v>13100301</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>6000</v>
-      </c>
+      <c r="N61" s="2">
+        <v>16100105</v>
+      </c>
+      <c r="P61">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="O62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P62">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="9"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="B63">
+        <v>13100201</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>6000</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
+      <c r="N63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="64" spans="3:13">
       <c r="C64" s="3"/>
@@ -3081,139 +3163,103 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="3:13">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="9"/>
+    <row r="66" spans="2:16">
+      <c r="B66">
+        <v>13100301</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>6000</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:16">
-      <c r="B67">
-        <v>13001003</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>4000</v>
-      </c>
+      <c r="O66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="2">
-        <v>14001001</v>
-      </c>
-      <c r="P67">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68">
-        <v>13001005</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-      <c r="N68" s="2">
-        <v>4002020</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="2:16">
-      <c r="B69">
-        <v>13001006</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="2">
-        <v>4002023</v>
-      </c>
-      <c r="P69">
-        <v>15008019</v>
-      </c>
-    </row>
-    <row r="70" spans="10:13">
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" customFormat="1" spans="2:14">
+    <row r="71" spans="2:16">
       <c r="B71">
-        <v>13001010</v>
+        <v>13001003</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
@@ -3228,25 +3274,28 @@
         <v>0</v>
       </c>
       <c r="I71" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="2">
-        <v>3001013</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:16">
+        <v>14001001</v>
+      </c>
+      <c r="P71">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72">
-        <v>13001011</v>
+        <v>13001005</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -3261,23 +3310,19 @@
         <v>0</v>
       </c>
       <c r="I72" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72">
-        <v>15008029</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="2:15">
+      <c r="N72" s="2">
+        <v>4002020</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:16">
       <c r="B73">
-        <v>13001012</v>
+        <v>13001006</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>79</v>
@@ -3298,16 +3343,18 @@
         <v>0</v>
       </c>
       <c r="I73" s="9">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O73" s="2"/>
+      <c r="N73" s="2">
+        <v>4002023</v>
+      </c>
+      <c r="P73">
+        <v>15008019</v>
+      </c>
     </row>
     <row r="74" spans="10:13">
       <c r="J74" s="3"/>
@@ -3315,23 +3362,109 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="10:13">
+    <row r="75" customFormat="1" spans="2:14">
+      <c r="B75">
+        <v>13001010</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>6000</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="10:13">
+      <c r="N75" s="2">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="2:16">
+      <c r="B76">
+        <v>13001011</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>6000</v>
+      </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="10:13">
+      <c r="N76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76">
+        <v>15008029</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="2:15">
+      <c r="B77">
+        <v>13001012</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>6000</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
+      <c r="N77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O77" s="2"/>
     </row>
     <row r="78" spans="10:13">
       <c r="J78" s="3"/>
@@ -3339,42 +3472,11 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" customFormat="1" spans="2:16">
-      <c r="B79">
-        <v>13002030</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>1</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="79" spans="10:13">
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79">
-        <v>15008030</v>
-      </c>
     </row>
     <row r="80" spans="10:13">
       <c r="J80" s="3"/>
@@ -3394,74 +3496,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" customFormat="1" spans="2:16">
       <c r="B83">
-        <v>13002040</v>
+        <v>13002030</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
-      <c r="I83" s="9">
-        <v>4000</v>
+      <c r="I83" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="2">
-        <v>4002030</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="2:16">
-      <c r="B84">
-        <v>13002041</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>8000</v>
-      </c>
+      <c r="N83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83">
+        <v>15008030</v>
+      </c>
+    </row>
+    <row r="84" spans="10:13">
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="2">
-        <v>4002031</v>
-      </c>
-      <c r="P84">
-        <v>15008031</v>
-      </c>
     </row>
     <row r="85" spans="10:13">
       <c r="J85" s="3"/>
@@ -3475,15 +3551,15 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:14">
       <c r="B87">
-        <v>13050001</v>
+        <v>13002040</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
@@ -3505,53 +3581,66 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="2">
-        <v>14050001</v>
-      </c>
-      <c r="P87">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="2:16">
       <c r="B88">
-        <v>13050002</v>
+        <v>13002041</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1">
+        <v>89</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
-      <c r="I88" s="2">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
+      <c r="I88" s="9">
+        <v>8000</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
       <c r="N88" s="2">
-        <v>4005001</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="2:16">
+        <v>4002031</v>
+      </c>
+      <c r="P88">
+        <v>15008031</v>
+      </c>
+    </row>
+    <row r="89" spans="10:13">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="10:13">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="2:16">
       <c r="B91">
-        <v>13060101</v>
+        <v>13050001</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3573,9 +3662,77 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="2">
+        <v>14050001</v>
+      </c>
+      <c r="P91">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92">
+        <v>13050002</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="N92" s="2">
+        <v>4005001</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="2:16">
+      <c r="B95">
+        <v>13060101</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="2">
         <v>4006201</v>
       </c>
-      <c r="P91">
+      <c r="P95">
         <v>15008014</v>
       </c>
     </row>
